--- a/Data/EC/NIT-9004179744.xlsx
+++ b/Data/EC/NIT-9004179744.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BBF2BB-7544-48D2-ABA8-BF7AE9ACE357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90460B0D-B543-466F-A6BA-814202EA46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C77AC62-BE3E-4630-8FAC-B6A4BBC0538E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A57F6A76-CC66-4780-B6DE-705FCE187798}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,24 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1128058778</t>
+  </si>
+  <si>
+    <t>YOSIMAR LORDUY CHAVEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>73188736</t>
   </si>
   <si>
@@ -74,12 +92,24 @@
     <t>1608</t>
   </si>
   <si>
+    <t>9294622</t>
+  </si>
+  <si>
+    <t>OSVALDO ENRIQUE ALVAREZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>73270962</t>
   </si>
   <si>
     <t>EDEL ENRIQUE CHAMORRO CANTILLO</t>
   </si>
   <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>1609</t>
   </si>
   <si>
@@ -87,36 +117,6 @@
   </si>
   <si>
     <t>YOHON DAIRO DE LEON BERROCAL</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>9294622</t>
-  </si>
-  <si>
-    <t>OSVALDO ENRIQUE ALVAREZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1128058778</t>
-  </si>
-  <si>
-    <t>YOSIMAR LORDUY CHAVEZ</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D79744-22AB-161C-5068-986F05DB5B25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E941D0-C21E-4B11-DC5E-07F58073E2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1210B2E-9913-48AB-A195-493A3B698998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C2D49-0951-4890-9EB9-868B24FEEFB3}">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>100454</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,19 +1073,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>19200</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,19 +1096,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27734</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1119,19 +1119,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1142,16 +1142,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>96000</v>
+        <v>100454</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>96000</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1194,13 +1194,13 @@
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1217,13 +1217,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>19200</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" s="24">
-        <v>29509</v>
+        <v>27734</v>
       </c>
       <c r="G24" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>

--- a/Data/EC/NIT-9004179744.xlsx
+++ b/Data/EC/NIT-9004179744.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90460B0D-B543-466F-A6BA-814202EA46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E67B397-678F-4277-8ECF-6B3BE2458535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A57F6A76-CC66-4780-B6DE-705FCE187798}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A74EEFA0-DE50-40C5-B45D-106530173941}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,58 +65,58 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73188736</t>
+  </si>
+  <si>
+    <t>OSCAR EUGENIO ALVAREZ ANGULO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>73270962</t>
+  </si>
+  <si>
+    <t>EDEL ENRIQUE CHAMORRO CANTILLO</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1049482102</t>
+  </si>
+  <si>
+    <t>YOHON DAIRO DE LEON BERROCAL</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>9294622</t>
+  </si>
+  <si>
+    <t>OSVALDO ENRIQUE ALVAREZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1128058778</t>
   </si>
   <si>
     <t>YOSIMAR LORDUY CHAVEZ</t>
   </si>
   <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
     <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>73188736</t>
-  </si>
-  <si>
-    <t>OSCAR EUGENIO ALVAREZ ANGULO</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>9294622</t>
-  </si>
-  <si>
-    <t>OSVALDO ENRIQUE ALVAREZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>73270962</t>
-  </si>
-  <si>
-    <t>EDEL ENRIQUE CHAMORRO CANTILLO</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1049482102</t>
-  </si>
-  <si>
-    <t>YOHON DAIRO DE LEON BERROCAL</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -215,22 +215,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,23 +430,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,10 +474,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E941D0-C21E-4B11-DC5E-07F58073E2E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04665B32-D880-D2CD-1987-D2E6FD993F45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C2D49-0951-4890-9EB9-868B24FEEFB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB4F9E-7BFA-469E-BEEC-94F637592025}">
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>100454</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,19 +1073,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>19200</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,19 +1096,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>27734</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1119,19 +1119,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1142,16 +1142,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>100454</v>
+        <v>96000</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>96000</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1194,13 +1194,13 @@
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1217,13 +1217,13 @@
         <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" s="18">
-        <v>19200</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1234,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="F24" s="24">
-        <v>27734</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="24">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
